--- a/Code/Results/Cases/Case_4_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.494276268478444</v>
+        <v>0.6091841905957551</v>
       </c>
       <c r="C2">
-        <v>0.2657961941416431</v>
+        <v>0.07670933973429328</v>
       </c>
       <c r="D2">
-        <v>0.1999807017026853</v>
+        <v>0.07823536744989212</v>
       </c>
       <c r="E2">
-        <v>1.386598311098695</v>
+        <v>0.4092159168139062</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.319010550703922</v>
+        <v>1.189793201367877</v>
       </c>
       <c r="H2">
-        <v>0.7878159987727713</v>
+        <v>1.101868511943223</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.662927550493606</v>
+        <v>0.6090929765921942</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.110960633962122</v>
+        <v>1.867259638893344</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.290201829140301</v>
+        <v>0.5562926210567696</v>
       </c>
       <c r="C3">
-        <v>0.2294973546341907</v>
+        <v>0.06680845881504638</v>
       </c>
       <c r="D3">
-        <v>0.1728337117404948</v>
+        <v>0.07099624596710896</v>
       </c>
       <c r="E3">
-        <v>1.187002855162788</v>
+        <v>0.356956660429546</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.19904075159684</v>
+        <v>1.164746019747582</v>
       </c>
       <c r="H3">
-        <v>0.7403407315265156</v>
+        <v>1.095636539561326</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.433905258475392</v>
+        <v>0.548940604643974</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.131603010925204</v>
+        <v>1.877060035399715</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.166665337143485</v>
+        <v>0.5241275071028895</v>
       </c>
       <c r="C4">
-        <v>0.2075085665388343</v>
+        <v>0.06073559980339382</v>
       </c>
       <c r="D4">
-        <v>0.1564158685602877</v>
+        <v>0.06658999394001341</v>
       </c>
       <c r="E4">
-        <v>1.067282782919577</v>
+        <v>0.3249800277407502</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.128312022403406</v>
+        <v>1.150107554988253</v>
       </c>
       <c r="H4">
-        <v>0.712767219821643</v>
+        <v>1.092353102637247</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.295232118927657</v>
+        <v>0.5122801669463399</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.146068408609942</v>
+        <v>1.88368721243954</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.116703803830916</v>
+        <v>0.5110974694362937</v>
       </c>
       <c r="C5">
-        <v>0.1986100086188429</v>
+        <v>0.05826225952571917</v>
       </c>
       <c r="D5">
-        <v>0.1497799784140454</v>
+        <v>0.06480401988150675</v>
       </c>
       <c r="E5">
-        <v>1.019096190919001</v>
+        <v>0.3119749038452255</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.100154946999197</v>
+        <v>1.144327410036041</v>
       </c>
       <c r="H5">
-        <v>0.7018942935267916</v>
+        <v>1.091151252381536</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.239137790335178</v>
+        <v>0.4974087054447125</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.152387503474628</v>
+        <v>1.886540701828004</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.108428959058642</v>
+        <v>0.5089385062962037</v>
       </c>
       <c r="C6">
-        <v>0.1971357967906471</v>
+        <v>0.05785164223715356</v>
       </c>
       <c r="D6">
-        <v>0.1486811509550137</v>
+        <v>0.0645080378497056</v>
       </c>
       <c r="E6">
-        <v>1.011128038916084</v>
+        <v>0.3098168948926201</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.095517682984323</v>
+        <v>1.143378772414991</v>
       </c>
       <c r="H6">
-        <v>0.7001098966283763</v>
+        <v>1.090959900121987</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.229846466541687</v>
+        <v>0.4949433931485032</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.153461693692414</v>
+        <v>1.887023740866695</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.165990077544848</v>
+        <v>0.5239514663880698</v>
       </c>
       <c r="C7">
-        <v>0.2073883226925517</v>
+        <v>0.06070223805618014</v>
       </c>
       <c r="D7">
-        <v>0.1563261646300447</v>
+        <v>0.06656586888668414</v>
       </c>
       <c r="E7">
-        <v>1.066630630908321</v>
+        <v>0.3248045353079618</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.127929682782408</v>
+        <v>1.150028853712413</v>
       </c>
       <c r="H7">
-        <v>0.7126191534299551</v>
+        <v>1.092336343189729</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.29447401920433</v>
+        <v>0.5120793310436511</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.146151944818705</v>
+        <v>1.883725077284083</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.423504892513847</v>
+        <v>0.59088236129287</v>
       </c>
       <c r="C8">
-        <v>0.253210059551634</v>
+        <v>0.07329408569594875</v>
       </c>
       <c r="D8">
-        <v>0.1905631009345115</v>
+        <v>0.07573124682662069</v>
       </c>
       <c r="E8">
-        <v>1.317118915263691</v>
+        <v>0.3911725693668586</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.276990786645769</v>
+        <v>1.181002555315473</v>
       </c>
       <c r="H8">
-        <v>0.7710986089192602</v>
+        <v>1.099606795678227</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.583510099801856</v>
+        <v>0.5882952139473048</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.117690066867212</v>
+        <v>1.87051200049271</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.945691705434569</v>
+        <v>0.7246310723945726</v>
       </c>
       <c r="C9">
-        <v>0.3461000312658484</v>
+        <v>0.09804666490794034</v>
       </c>
       <c r="D9">
-        <v>0.2601122256791513</v>
+        <v>0.09401611826045553</v>
       </c>
       <c r="E9">
-        <v>1.836531333950845</v>
+        <v>0.5223063258812601</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.596187124755431</v>
+        <v>1.247671898878707</v>
       </c>
       <c r="H9">
-        <v>0.8999348261536966</v>
+        <v>1.118191608240409</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.169463617712097</v>
+        <v>0.7399666090250037</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.077384739889268</v>
+        <v>1.849459487183026</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.344834796600594</v>
+        <v>0.8244761546641826</v>
       </c>
       <c r="C10">
-        <v>0.4172459096619434</v>
+        <v>0.1162843902163786</v>
       </c>
       <c r="D10">
-        <v>0.3133377829917237</v>
+        <v>0.1076487884881914</v>
       </c>
       <c r="E10">
-        <v>2.244580831213852</v>
+        <v>0.6194095504877453</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.852762924974911</v>
+        <v>1.300350118332574</v>
       </c>
       <c r="H10">
-        <v>1.005809467679171</v>
+        <v>1.134513302833568</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.617466932881939</v>
+        <v>0.8528202076288096</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.059257895571818</v>
+        <v>1.836982933797742</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.531075127183954</v>
+        <v>0.870254539771679</v>
       </c>
       <c r="C11">
-        <v>0.4505175223478375</v>
+        <v>0.1245959662509506</v>
       </c>
       <c r="D11">
-        <v>0.3381818188961603</v>
+        <v>0.1138958088410931</v>
       </c>
       <c r="E11">
-        <v>2.43844745251738</v>
+        <v>0.6637841985572805</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.975748946858204</v>
+        <v>1.32513551884702</v>
       </c>
       <c r="H11">
-        <v>1.057082422325152</v>
+        <v>1.142524297557259</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.826589108475901</v>
+        <v>0.9044851475094902</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.054033629051617</v>
+        <v>1.831962831121885</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.602395772973352</v>
+        <v>0.8876420153180788</v>
       </c>
       <c r="C12">
-        <v>0.4632740454511861</v>
+        <v>0.1277457691148811</v>
       </c>
       <c r="D12">
-        <v>0.3476964707859906</v>
+        <v>0.1162680621956866</v>
       </c>
       <c r="E12">
-        <v>2.513295646852669</v>
+        <v>0.6806194584708152</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.02336491869255</v>
+        <v>1.334640638273441</v>
       </c>
       <c r="H12">
-        <v>1.077010616543845</v>
+        <v>1.145642638202929</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.906690192011467</v>
+        <v>0.9240974794723513</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.052541441990741</v>
+        <v>1.830156654648192</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.586998053286209</v>
+        <v>0.8838949792648236</v>
       </c>
       <c r="C13">
-        <v>0.460519233501401</v>
+        <v>0.1270672930332921</v>
       </c>
       <c r="D13">
-        <v>0.3456422961091619</v>
+        <v>0.1157568578573347</v>
       </c>
       <c r="E13">
-        <v>2.497107483147985</v>
+        <v>0.6769922407611944</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.013061057419975</v>
+        <v>1.332588209139203</v>
       </c>
       <c r="H13">
-        <v>1.072694807362922</v>
+        <v>1.144967271020846</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.889395930934967</v>
+        <v>0.9198714665202772</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.052840290300622</v>
+        <v>1.830541420565069</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.536926004187194</v>
+        <v>0.8716839679385089</v>
       </c>
       <c r="C14">
-        <v>0.4515636887178687</v>
+        <v>0.1248550533152013</v>
       </c>
       <c r="D14">
-        <v>0.3389623567862543</v>
+        <v>0.114090841814118</v>
       </c>
       <c r="E14">
-        <v>2.444574913415352</v>
+        <v>0.6651685988295952</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.979644533848131</v>
+        <v>1.325915110045685</v>
       </c>
       <c r="H14">
-        <v>1.058711255721533</v>
+        <v>1.142779144124546</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.833159906568852</v>
+        <v>0.906097699965386</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.053900801611235</v>
+        <v>1.83181233217158</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.506363001443788</v>
+        <v>0.8642111881386541</v>
       </c>
       <c r="C15">
-        <v>0.4460995076862559</v>
+        <v>0.1235003101279801</v>
       </c>
       <c r="D15">
-        <v>0.33488511210507</v>
+        <v>0.1130712270997662</v>
       </c>
       <c r="E15">
-        <v>2.412592229582017</v>
+        <v>0.6579304597945139</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.959316455225121</v>
+        <v>1.321843234364621</v>
       </c>
       <c r="H15">
-        <v>1.050214720328199</v>
+        <v>1.141449904060721</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.798837034240449</v>
+        <v>0.8976671399043425</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.054615358898232</v>
+        <v>1.832603168348385</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.332767724297412</v>
+        <v>0.8214916969589581</v>
       </c>
       <c r="C16">
-        <v>0.4150919899526855</v>
+        <v>0.1157415319263464</v>
       </c>
       <c r="D16">
-        <v>0.3117281914060754</v>
+        <v>0.1072414546719784</v>
       </c>
       <c r="E16">
-        <v>2.232097474404256</v>
+        <v>0.6165138394653553</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.844863368454213</v>
+        <v>1.298746977629605</v>
       </c>
       <c r="H16">
-        <v>1.002526597408945</v>
+        <v>1.1340015999115</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.603919413927656</v>
+        <v>0.8494504426099354</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.059664369682167</v>
+        <v>1.837324248306857</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.227551469364073</v>
+        <v>0.7953769238727091</v>
       </c>
       <c r="C17">
-        <v>0.3963200934157101</v>
+        <v>0.1109858010116227</v>
       </c>
       <c r="D17">
-        <v>0.2976946330085894</v>
+        <v>0.1036767944062404</v>
       </c>
       <c r="E17">
-        <v>2.123646025437523</v>
+        <v>0.5911595716423363</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.776350925187501</v>
+        <v>1.284789543026733</v>
       </c>
       <c r="H17">
-        <v>0.9741115541185081</v>
+        <v>1.12958276420278</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.485804586273218</v>
+        <v>0.8199555028149632</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.063570252230917</v>
+        <v>1.840388775086495</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.167464895071248</v>
+        <v>0.7803900867390894</v>
       </c>
       <c r="C18">
-        <v>0.3856065446481409</v>
+        <v>0.1082518428602839</v>
       </c>
       <c r="D18">
-        <v>0.2896812720416904</v>
+        <v>0.1016307676299704</v>
       </c>
       <c r="E18">
-        <v>2.062026299021881</v>
+        <v>0.5765953192967714</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.73752479472347</v>
+        <v>1.276838873132562</v>
       </c>
       <c r="H18">
-        <v>0.9580563256192534</v>
+        <v>1.127096312264598</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.41835929719096</v>
+        <v>0.8030215442964277</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.066097754849025</v>
+        <v>1.842213078724114</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.147191128023508</v>
+        <v>0.7753215674479179</v>
       </c>
       <c r="C19">
-        <v>0.3819927150138938</v>
+        <v>0.1073264078059992</v>
       </c>
       <c r="D19">
-        <v>0.2869776571097589</v>
+        <v>0.1009387485348583</v>
       </c>
       <c r="E19">
-        <v>2.041286271299967</v>
+        <v>0.5716672756463907</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.724474593733532</v>
+        <v>1.274160147532797</v>
       </c>
       <c r="H19">
-        <v>0.9526679875949071</v>
+        <v>1.126263899772397</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.395603736294788</v>
+        <v>0.7972932518736116</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.067000316718691</v>
+        <v>1.842841331304825</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.238706462673917</v>
+        <v>0.7981533945392698</v>
       </c>
       <c r="C20">
-        <v>0.3983095646345873</v>
+        <v>0.1114919089710042</v>
       </c>
       <c r="D20">
-        <v>0.2991823789539296</v>
+        <v>0.1040558157195193</v>
       </c>
       <c r="E20">
-        <v>2.135110668840511</v>
+        <v>0.5938566075170968</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.783583151279316</v>
+        <v>1.286267328876505</v>
       </c>
       <c r="H20">
-        <v>0.9771060978862351</v>
+        <v>1.130047446185102</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.49832627934336</v>
+        <v>0.8230921006031338</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.063125036536633</v>
+        <v>1.840056164487848</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.551610714173876</v>
+        <v>0.875269216056779</v>
       </c>
       <c r="C21">
-        <v>0.4541896465146635</v>
+        <v>0.1255047751926668</v>
       </c>
       <c r="D21">
-        <v>0.3409213822145034</v>
+        <v>0.1145800099821201</v>
       </c>
       <c r="E21">
-        <v>2.459963850600161</v>
+        <v>0.6686406128029319</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.989430212189745</v>
+        <v>1.327871909769982</v>
       </c>
       <c r="H21">
-        <v>1.062804098040772</v>
+        <v>1.143419546215739</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.849651801647042</v>
+        <v>0.9101420808979412</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.053575662840501</v>
+        <v>1.831436456522439</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.760819053253897</v>
+        <v>0.9259734120518033</v>
       </c>
       <c r="C22">
-        <v>0.491642812950488</v>
+        <v>0.1346770213670823</v>
       </c>
       <c r="D22">
-        <v>0.3688314394600098</v>
+        <v>0.1214969464745224</v>
       </c>
       <c r="E22">
-        <v>2.680787696017347</v>
+        <v>0.7177013354224613</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.130128765954936</v>
+        <v>1.355759607507821</v>
       </c>
       <c r="H22">
-        <v>1.121835524669734</v>
+        <v>1.152653198556521</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.084656818802586</v>
+        <v>0.9673141297860184</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.050197581878663</v>
+        <v>1.826355972285626</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.648684204922176</v>
+        <v>0.8988835391048156</v>
       </c>
       <c r="C23">
-        <v>0.4715580811790403</v>
+        <v>0.1297802665133077</v>
       </c>
       <c r="D23">
-        <v>0.3538717345332714</v>
+        <v>0.1178016644558824</v>
       </c>
       <c r="E23">
-        <v>2.562056702174075</v>
+        <v>0.6914989333135964</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.054418641911639</v>
+        <v>1.340811252982974</v>
       </c>
       <c r="H23">
-        <v>1.090028792192328</v>
+        <v>1.147679649988163</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.958683041498574</v>
+        <v>0.9367744295189766</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.051719545580653</v>
+        <v>1.829016735907487</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.233662042070534</v>
+        <v>0.7968980684334497</v>
       </c>
       <c r="C24">
-        <v>0.3974098816493097</v>
+        <v>0.1112630970351063</v>
       </c>
       <c r="D24">
-        <v>0.2985095997538139</v>
+        <v>0.1038844497781639</v>
       </c>
       <c r="E24">
-        <v>2.129925246626911</v>
+        <v>0.5926372396447874</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.780311720038554</v>
+        <v>1.285598992587779</v>
       </c>
       <c r="H24">
-        <v>0.9757513943230549</v>
+        <v>1.129837195296233</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.492663798284184</v>
+        <v>0.821673972938413</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.063325444125539</v>
+        <v>1.840206343191369</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.802102811713382</v>
+        <v>0.6881752520068005</v>
       </c>
       <c r="C25">
-        <v>0.320545535252478</v>
+        <v>0.09134242952094951</v>
       </c>
       <c r="D25">
-        <v>0.2409755936226503</v>
+        <v>0.08903531152128608</v>
       </c>
       <c r="E25">
-        <v>1.692121642795058</v>
+        <v>0.4867093695847018</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.506412316293023</v>
+        <v>1.22899289237526</v>
       </c>
       <c r="H25">
-        <v>0.8633167164493329</v>
+        <v>1.112697639411437</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.008336825918519</v>
+        <v>0.6986912594324792</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.086433047457163</v>
+        <v>1.854631668916639</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6091841905957551</v>
+        <v>1.494276268478416</v>
       </c>
       <c r="C2">
-        <v>0.07670933973429328</v>
+        <v>0.2657961941414726</v>
       </c>
       <c r="D2">
-        <v>0.07823536744989212</v>
+        <v>0.1999807017025717</v>
       </c>
       <c r="E2">
-        <v>0.4092159168139062</v>
+        <v>1.386598311098709</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.189793201367877</v>
+        <v>1.319010550703922</v>
       </c>
       <c r="H2">
-        <v>1.101868511943223</v>
+        <v>0.7878159987727713</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6090929765921942</v>
+        <v>1.662927550493578</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.867259638893344</v>
+        <v>1.110960633962122</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5562926210567696</v>
+        <v>1.290201829140301</v>
       </c>
       <c r="C3">
-        <v>0.06680845881504638</v>
+        <v>0.2294973546338213</v>
       </c>
       <c r="D3">
-        <v>0.07099624596710896</v>
+        <v>0.1728337117407079</v>
       </c>
       <c r="E3">
-        <v>0.356956660429546</v>
+        <v>1.187002855162788</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.164746019747582</v>
+        <v>1.199040751596939</v>
       </c>
       <c r="H3">
-        <v>1.095636539561326</v>
+        <v>0.7403407315266293</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.548940604643974</v>
+        <v>1.433905258475363</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.877060035399715</v>
+        <v>1.131603010925204</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5241275071028895</v>
+        <v>1.166665337143343</v>
       </c>
       <c r="C4">
-        <v>0.06073559980339382</v>
+        <v>0.2075085665389622</v>
       </c>
       <c r="D4">
-        <v>0.06658999394001341</v>
+        <v>0.1564158685602877</v>
       </c>
       <c r="E4">
-        <v>0.3249800277407502</v>
+        <v>1.067282782919577</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.150107554988253</v>
+        <v>1.128312022403392</v>
       </c>
       <c r="H4">
-        <v>1.092353102637247</v>
+        <v>0.7127672198216288</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5122801669463399</v>
+        <v>1.295232118927657</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.88368721243954</v>
+        <v>1.146068408609935</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5110974694362937</v>
+        <v>1.116703803830802</v>
       </c>
       <c r="C5">
-        <v>0.05826225952571917</v>
+        <v>0.1986100086187008</v>
       </c>
       <c r="D5">
-        <v>0.06480401988150675</v>
+        <v>0.1497799784139033</v>
       </c>
       <c r="E5">
-        <v>0.3119749038452255</v>
+        <v>1.019096190919058</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.144327410036041</v>
+        <v>1.100154946999083</v>
       </c>
       <c r="H5">
-        <v>1.091151252381536</v>
+        <v>0.7018942935267916</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4974087054447125</v>
+        <v>1.239137790335178</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.886540701828004</v>
+        <v>1.152387503474593</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5089385062962037</v>
+        <v>1.1084289590585</v>
       </c>
       <c r="C6">
-        <v>0.05785164223715356</v>
+        <v>0.1971357967906471</v>
       </c>
       <c r="D6">
-        <v>0.0645080378497056</v>
+        <v>0.1486811509552126</v>
       </c>
       <c r="E6">
-        <v>0.3098168948926201</v>
+        <v>1.011128038916084</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.143378772414991</v>
+        <v>1.095517682984266</v>
       </c>
       <c r="H6">
-        <v>1.090959900121987</v>
+        <v>0.7001098966282768</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4949433931485032</v>
+        <v>1.229846466541602</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.887023740866695</v>
+        <v>1.1534616936924</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5239514663880698</v>
+        <v>1.165990077544819</v>
       </c>
       <c r="C7">
-        <v>0.06070223805618014</v>
+        <v>0.2073883226926796</v>
       </c>
       <c r="D7">
-        <v>0.06656586888668414</v>
+        <v>0.1563261646297178</v>
       </c>
       <c r="E7">
-        <v>0.3248045353079618</v>
+        <v>1.066630630908293</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.150028853712413</v>
+        <v>1.127929682782451</v>
       </c>
       <c r="H7">
-        <v>1.092336343189729</v>
+        <v>0.7126191534300688</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5120793310436511</v>
+        <v>1.294474019204273</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.883725077284083</v>
+        <v>1.146151944818733</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.59088236129287</v>
+        <v>1.423504892513932</v>
       </c>
       <c r="C8">
-        <v>0.07329408569594875</v>
+        <v>0.2532100595517335</v>
       </c>
       <c r="D8">
-        <v>0.07573124682662069</v>
+        <v>0.1905631009344688</v>
       </c>
       <c r="E8">
-        <v>0.3911725693668586</v>
+        <v>1.317118915263706</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.181002555315473</v>
+        <v>1.276990786645769</v>
       </c>
       <c r="H8">
-        <v>1.099606795678227</v>
+        <v>0.7710986089192602</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5882952139473048</v>
+        <v>1.583510099801941</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.87051200049271</v>
+        <v>1.117690066867155</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7246310723945726</v>
+        <v>1.945691705434655</v>
       </c>
       <c r="C9">
-        <v>0.09804666490794034</v>
+        <v>0.3461000312660758</v>
       </c>
       <c r="D9">
-        <v>0.09401611826045553</v>
+        <v>0.2601122256791371</v>
       </c>
       <c r="E9">
-        <v>0.5223063258812601</v>
+        <v>1.836531333950859</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.247671898878707</v>
+        <v>1.596187124755431</v>
       </c>
       <c r="H9">
-        <v>1.118191608240409</v>
+        <v>0.8999348261536682</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7399666090250037</v>
+        <v>2.169463617712069</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.849459487183026</v>
+        <v>1.077384739889169</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8244761546641826</v>
+        <v>2.344834796600594</v>
       </c>
       <c r="C10">
-        <v>0.1162843902163786</v>
+        <v>0.4172459096616876</v>
       </c>
       <c r="D10">
-        <v>0.1076487884881914</v>
+        <v>0.3133377829917521</v>
       </c>
       <c r="E10">
-        <v>0.6194095504877453</v>
+        <v>2.24458083121381</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.300350118332574</v>
+        <v>1.852762924974911</v>
       </c>
       <c r="H10">
-        <v>1.134513302833568</v>
+        <v>1.0058094676792</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8528202076288096</v>
+        <v>2.617466932881939</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.836982933797742</v>
+        <v>1.059257895571761</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.870254539771679</v>
+        <v>2.531075127183954</v>
       </c>
       <c r="C11">
-        <v>0.1245959662509506</v>
+        <v>0.4505175223477238</v>
       </c>
       <c r="D11">
-        <v>0.1138958088410931</v>
+        <v>0.3381818188962882</v>
       </c>
       <c r="E11">
-        <v>0.6637841985572805</v>
+        <v>2.438447452517352</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.32513551884702</v>
+        <v>1.975748946858175</v>
       </c>
       <c r="H11">
-        <v>1.142524297557259</v>
+        <v>1.057082422325152</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9044851475094902</v>
+        <v>2.826589108475787</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.831962831121885</v>
+        <v>1.05403362905156</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8876420153180788</v>
+        <v>2.602395772973637</v>
       </c>
       <c r="C12">
-        <v>0.1277457691148811</v>
+        <v>0.4632740454509587</v>
       </c>
       <c r="D12">
-        <v>0.1162680621956866</v>
+        <v>0.3476964707859764</v>
       </c>
       <c r="E12">
-        <v>0.6806194584708152</v>
+        <v>2.513295646852683</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.334640638273441</v>
+        <v>2.023364918692664</v>
       </c>
       <c r="H12">
-        <v>1.145642638202929</v>
+        <v>1.077010616543816</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9240974794723513</v>
+        <v>2.906690192011666</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.830156654648192</v>
+        <v>1.052541441990698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8838949792648236</v>
+        <v>2.586998053286209</v>
       </c>
       <c r="C13">
-        <v>0.1270672930332921</v>
+        <v>0.4605192335015147</v>
       </c>
       <c r="D13">
-        <v>0.1157568578573347</v>
+        <v>0.3456422961091619</v>
       </c>
       <c r="E13">
-        <v>0.6769922407611944</v>
+        <v>2.497107483147971</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.332588209139203</v>
+        <v>2.013061057419947</v>
       </c>
       <c r="H13">
-        <v>1.144967271020846</v>
+        <v>1.072694807362922</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9198714665202772</v>
+        <v>2.88939593093491</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.830541420565069</v>
+        <v>1.052840290300622</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8716839679385089</v>
+        <v>2.536926004187251</v>
       </c>
       <c r="C14">
-        <v>0.1248550533152013</v>
+        <v>0.4515636887178687</v>
       </c>
       <c r="D14">
-        <v>0.114090841814118</v>
+        <v>0.3389623567862827</v>
       </c>
       <c r="E14">
-        <v>0.6651685988295952</v>
+        <v>2.444574913415323</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.325915110045685</v>
+        <v>1.979644533848045</v>
       </c>
       <c r="H14">
-        <v>1.142779144124546</v>
+        <v>1.058711255721619</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.906097699965386</v>
+        <v>2.833159906568909</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.83181233217158</v>
+        <v>1.053900801611292</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8642111881386541</v>
+        <v>2.506363001443844</v>
       </c>
       <c r="C15">
-        <v>0.1235003101279801</v>
+        <v>0.4460995076860286</v>
       </c>
       <c r="D15">
-        <v>0.1130712270997662</v>
+        <v>0.3348851121048426</v>
       </c>
       <c r="E15">
-        <v>0.6579304597945139</v>
+        <v>2.412592229582074</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.321843234364621</v>
+        <v>1.959316455225178</v>
       </c>
       <c r="H15">
-        <v>1.141449904060721</v>
+        <v>1.050214720328341</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8976671399043425</v>
+        <v>2.798837034240449</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.832603168348385</v>
+        <v>1.054615358898232</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8214916969589581</v>
+        <v>2.332767724297582</v>
       </c>
       <c r="C16">
-        <v>0.1157415319263464</v>
+        <v>0.4150919899524581</v>
       </c>
       <c r="D16">
-        <v>0.1072414546719784</v>
+        <v>0.3117281914059618</v>
       </c>
       <c r="E16">
-        <v>0.6165138394653553</v>
+        <v>2.232097474404242</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.298746977629605</v>
+        <v>1.844863368454213</v>
       </c>
       <c r="H16">
-        <v>1.1340015999115</v>
+        <v>1.002526597408945</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8494504426099354</v>
+        <v>2.603919413927684</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.837324248306857</v>
+        <v>1.059664369682224</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7953769238727091</v>
+        <v>2.227551469364073</v>
       </c>
       <c r="C17">
-        <v>0.1109858010116227</v>
+        <v>0.3963200934157101</v>
       </c>
       <c r="D17">
-        <v>0.1036767944062404</v>
+        <v>0.2976946330087031</v>
       </c>
       <c r="E17">
-        <v>0.5911595716423363</v>
+        <v>2.123646025437552</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.284789543026733</v>
+        <v>1.776350925187529</v>
       </c>
       <c r="H17">
-        <v>1.12958276420278</v>
+        <v>0.9741115541184513</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8199555028149632</v>
+        <v>2.48580458627319</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.840388775086495</v>
+        <v>1.063570252230861</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7803900867390894</v>
+        <v>2.167464895071305</v>
       </c>
       <c r="C18">
-        <v>0.1082518428602839</v>
+        <v>0.3856065446482262</v>
       </c>
       <c r="D18">
-        <v>0.1016307676299704</v>
+        <v>0.2896812720416904</v>
       </c>
       <c r="E18">
-        <v>0.5765953192967714</v>
+        <v>2.062026299021767</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.276838873132562</v>
+        <v>1.737524794723441</v>
       </c>
       <c r="H18">
-        <v>1.127096312264598</v>
+        <v>0.9580563256191112</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8030215442964277</v>
+        <v>2.41835929719096</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.842213078724114</v>
+        <v>1.066097754849068</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7753215674479179</v>
+        <v>2.147191128023508</v>
       </c>
       <c r="C19">
-        <v>0.1073264078059992</v>
+        <v>0.3819927150139506</v>
       </c>
       <c r="D19">
-        <v>0.1009387485348583</v>
+        <v>0.2869776571096452</v>
       </c>
       <c r="E19">
-        <v>0.5716672756463907</v>
+        <v>2.041286271299896</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.274160147532797</v>
+        <v>1.724474593733476</v>
       </c>
       <c r="H19">
-        <v>1.126263899772397</v>
+        <v>0.9526679875949071</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7972932518736116</v>
+        <v>2.39560373629476</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.842841331304825</v>
+        <v>1.067000316718691</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7981533945392698</v>
+        <v>2.238706462673974</v>
       </c>
       <c r="C20">
-        <v>0.1114919089710042</v>
+        <v>0.3983095646343884</v>
       </c>
       <c r="D20">
-        <v>0.1040558157195193</v>
+        <v>0.2991823789537733</v>
       </c>
       <c r="E20">
-        <v>0.5938566075170968</v>
+        <v>2.135110668840511</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.286267328876505</v>
+        <v>1.783583151279345</v>
       </c>
       <c r="H20">
-        <v>1.130047446185102</v>
+        <v>0.9771060978862351</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8230921006031338</v>
+        <v>2.498326279343246</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.840056164487848</v>
+        <v>1.063125036536633</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.875269216056779</v>
+        <v>2.551610714173819</v>
       </c>
       <c r="C21">
-        <v>0.1255047751926668</v>
+        <v>0.454189646514493</v>
       </c>
       <c r="D21">
-        <v>0.1145800099821201</v>
+        <v>0.3409213822142902</v>
       </c>
       <c r="E21">
-        <v>0.6686406128029319</v>
+        <v>2.459963850600175</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.327871909769982</v>
+        <v>1.989430212189859</v>
       </c>
       <c r="H21">
-        <v>1.143419546215739</v>
+        <v>1.062804098040914</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9101420808979412</v>
+        <v>2.849651801647127</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.831436456522439</v>
+        <v>1.053575662840515</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9259734120518033</v>
+        <v>2.760819053254181</v>
       </c>
       <c r="C22">
-        <v>0.1346770213670823</v>
+        <v>0.4916428129504595</v>
       </c>
       <c r="D22">
-        <v>0.1214969464745224</v>
+        <v>0.3688314394596972</v>
       </c>
       <c r="E22">
-        <v>0.7177013354224613</v>
+        <v>2.680787696017376</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.355759607507821</v>
+        <v>2.130128765954964</v>
       </c>
       <c r="H22">
-        <v>1.152653198556521</v>
+        <v>1.121835524669734</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9673141297860184</v>
+        <v>3.084656818802586</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.826355972285626</v>
+        <v>1.050197581878663</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8988835391048156</v>
+        <v>2.648684204922233</v>
       </c>
       <c r="C23">
-        <v>0.1297802665133077</v>
+        <v>0.471558081179154</v>
       </c>
       <c r="D23">
-        <v>0.1178016644558824</v>
+        <v>0.3538717345332714</v>
       </c>
       <c r="E23">
-        <v>0.6914989333135964</v>
+        <v>2.562056702174118</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.340811252982974</v>
+        <v>2.05441864191161</v>
       </c>
       <c r="H23">
-        <v>1.147679649988163</v>
+        <v>1.0900287921923</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9367744295189766</v>
+        <v>2.958683041498517</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.829016735907487</v>
+        <v>1.05171954558061</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7968980684334497</v>
+        <v>2.233662042070591</v>
       </c>
       <c r="C24">
-        <v>0.1112630970351063</v>
+        <v>0.3974098816490823</v>
       </c>
       <c r="D24">
-        <v>0.1038844497781639</v>
+        <v>0.2985095997537002</v>
       </c>
       <c r="E24">
-        <v>0.5926372396447874</v>
+        <v>2.129925246626883</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.285598992587779</v>
+        <v>1.780311720038526</v>
       </c>
       <c r="H24">
-        <v>1.129837195296233</v>
+        <v>0.9757513943229696</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.821673972938413</v>
+        <v>2.492663798284184</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.840206343191369</v>
+        <v>1.063325444125539</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6881752520068005</v>
+        <v>1.802102811713468</v>
       </c>
       <c r="C25">
-        <v>0.09134242952094951</v>
+        <v>0.3205455352524211</v>
       </c>
       <c r="D25">
-        <v>0.08903531152128608</v>
+        <v>0.2409755936225508</v>
       </c>
       <c r="E25">
-        <v>0.4867093695847018</v>
+        <v>1.692121642795087</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.22899289237526</v>
+        <v>1.506412316292938</v>
       </c>
       <c r="H25">
-        <v>1.112697639411437</v>
+        <v>0.8633167164491908</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6986912594324792</v>
+        <v>2.008336825918519</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.854631668916639</v>
+        <v>1.086433047457163</v>
       </c>
       <c r="O25">
         <v>0</v>
